--- a/db_tools/acctg_db2/service_type_business.xlsx
+++ b/db_tools/acctg_db2/service_type_business.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgrammingData\accounting-database-using-sqlite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgrammingPython\thanos_app\db_tools\acctg_db2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5134B7F-3F8F-4525-A49C-95874C4E51AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9696F-5CB5-4772-838A-4B2741F9CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="804" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="19" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="Spent_Moneys" sheetId="6" r:id="rId12"/>
     <sheet name="Spent_Money_Lines" sheetId="10" r:id="rId13"/>
     <sheet name="Journals" sheetId="9" r:id="rId14"/>
+    <sheet name="cash_transactions" sheetId="20" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Accounts!$D:$D</definedName>
@@ -99,7 +100,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Kenneth:</t>
         </r>
@@ -108,7 +109,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Our business is accounting and advisory services hence our expense is mostly salaries of the employees</t>
@@ -597,7 +598,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,19 +769,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1126,7 +1114,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1137,8 +1125,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1213,9 +1200,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1253,7 +1240,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1359,7 +1346,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1501,7 +1488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2536,7 +2523,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -2565,11 +2552,10 @@
       <c r="D1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -2584,11 +2570,10 @@
       <c r="D2">
         <v>780</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -2603,11 +2588,10 @@
       <c r="D3">
         <v>780</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -2622,11 +2606,10 @@
       <c r="D4">
         <v>780</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2641,11 +2624,10 @@
       <c r="D5">
         <v>190</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -2660,11 +2642,10 @@
       <c r="D6">
         <v>210</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2679,11 +2660,10 @@
       <c r="D7">
         <v>200</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -2698,11 +2678,10 @@
       <c r="D8">
         <v>200</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -2717,11 +2696,10 @@
       <c r="D9">
         <v>190</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -2736,74 +2714,40 @@
       <c r="D10">
         <v>210</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2964,8 +2908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3482,6 +3426,18 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5274022-4D70-49EA-98EA-CEC8A11E716F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3601,8 +3557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F612AD14-E339-4FEE-A5B6-6BF26C107180}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
